--- a/packages/renderer/assets/template.xlsx
+++ b/packages/renderer/assets/template.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25990" windowHeight="17680"/>
+    <workbookView windowWidth="30240" windowHeight="12500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>name</t>
   </si>
@@ -22,22 +35,10 @@
     <t>remark</t>
   </si>
   <si>
-    <t>cookie</t>
-  </si>
-  <si>
-    <t>proxytype</t>
-  </si>
-  <si>
-    <t>proxy</t>
-  </si>
-  <si>
     <t>proxyid</t>
   </si>
   <si>
-    <t>ua</t>
-  </si>
-  <si>
-    <t>resolution</t>
+    <t>group</t>
   </si>
   <si>
     <r>
@@ -47,7 +48,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF0070C0"/>
+        <color theme="4"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -55,276 +56,62 @@
     </r>
   </si>
   <si>
-    <t>选填，填写浏览器环境的备注信息。</t>
-  </si>
-  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>若勾选了“校验重复- Cooike”，则该列为必填项。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-选填，仅支持JSON格式的Cookie：
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必填</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">，填写需要的代理类型。
-1. 使用本地网络直连，则填写 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>noproxy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 即可。
-2. 使用 HTTP\HTTPS\Socks5 代理类型，则根据所需类型填写相应的选项。
+      <t xml:space="preserve">选填，填写浏览器环境的备注信息。
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="4"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">    a. 选项：http、https、socks5
-    b. 若选择该类型，则必须填写【proxy】列</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
+      <t>注意：填写完成后，请删除该行示例</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>该列为使用 HTTP\HTTPS\SSH\Socks5\Luminati 代理类型的必填项。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-选填，填写代理的相关信息(主机、端口、代理账号、代理密码)。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">选填，代理ID，需先导入代理。
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF171616"/>
+        <color theme="4"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF171616"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">. IPv4 类型，填写格式 Host:Port:Username:Password
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7F7F7F"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 例子：192.168.0.1:8000:myproxy:password</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF171616"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2. IPv6 类型，填写格式 [Host]:Port:Username:Password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF171616"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7F7F7F"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>例子：[1234:abcd:a11:0:0:0:0:e13]:8000:myproxy:password</t>
+      <t>注意：填写完成后，请删除该行示例</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>若需使用“代理管理”中的代理，则仅填写该列即可。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-选填，填写代理管理中的代理ID。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">分组名称。
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>例子：1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">选填，填写需要使用的User Agent。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7F7F7F"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>例子：
-Mozilla/5.0 (Macintosh; Intel Mac OS X 10_12_0) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/108.0.5359.72 Safari/537.36</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">选填，填写浏览器环境的分辨率。使用默认值填写 default 即可
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7F7F7F"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>例子：
-1080x1920</t>
+      <t>注意：填写完成后，请删除该行示例</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -352,19 +139,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -517,38 +291,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF171616"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF171616"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="4"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -879,19 +622,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -900,131 +652,122 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1040,13 +783,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1370,75 +1107,47 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16923076923077" defaultRowHeight="16.8" customHeight="1" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="16.8" customHeight="1" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="36.6" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.6" style="3" customWidth="1"/>
-    <col min="3" max="3" width="40.6" style="3" customWidth="1"/>
-    <col min="4" max="4" width="75.6" style="3" customWidth="1"/>
-    <col min="5" max="5" width="60.6" style="3" customWidth="1"/>
-    <col min="6" max="6" width="45.6" style="3" customWidth="1"/>
-    <col min="7" max="7" width="40.6" style="3" customWidth="1"/>
-    <col min="8" max="8" width="30.6" style="3" customWidth="1"/>
-    <col min="9" max="33" width="9.16923076923077" style="3"/>
+    <col min="1" max="1" width="36.5972222222222" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.5972222222222" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.7638888888889" style="3" customWidth="1"/>
+    <col min="5" max="27" width="9.16666666666667" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17" customHeight="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="17" customHeight="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" ht="180" customHeight="1" spans="1:4">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="180" customHeight="1" spans="1:8">
-      <c r="A2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="1" customHeight="1"/>
